--- a/url_LIVE.xlsx
+++ b/url_LIVE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hivelab.DESKTOP-PHLIC2C\Desktop\2023_2h 보안룸 자동화 (1)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\언팩_20230727\언팩_20230727\QA 산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{804E8AB0-AF40-4F2B-B363-A628D4783416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F020D13A-FF47-46D9-BF22-E563A6689DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{FF26D70E-FE77-488B-8B1B-B7F889FEE244}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FF26D70E-FE77-488B-8B1B-B7F889FEE244}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="140">
   <si>
     <t>Site Code</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -166,9 +166,6 @@
     <t>IRAN</t>
   </si>
   <si>
-    <t>https://www.samsung.com/lb/tablets/galaxy-tab-s/galaxy-tab-s9-wi-fi-graphite-128gb-sm-x710nzaamea/</t>
-  </si>
-  <si>
     <t>https://www.samsung.com/ae/tablets/galaxy-tab-s/galaxy-tab-s9-wi-fi-graphite-128gb-sm-x710nzaamea/</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -186,150 +183,6 @@
   </si>
   <si>
     <t>https://www.samsung.com/africa_pt/tablets/galaxy-tab-s/galaxy-tab-s9-5g-graphite-128gb-sm-x716bzaaafa/</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.samsung.com/ar/tablets/galaxy-tab-s/galaxy-tab-s9-wi-fi-graphite-256gb-sm-x710nzaharo/</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.samsung.com/br/tablets/galaxy-tab-s/galaxy-tab-s9-5g-graphite-256gb-sm-x716bzahzto/</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.samsung.com/au/tablets/galaxy-tab-s/galaxy-tab-s9-wi-fi-graphite-256gb-sm-x710nzaexsa/</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.samsung.com/ca/tablets/galaxy-tab-s/galaxy-tab-s9-wi-fi-graphite-128gb-sm-x710nzaaxac/</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.samsung.com/ca_fr/tablets/galaxy-tab-s/galaxy-tab-s9-wi-fi-graphite-128gb-sm-x710nzaaxac/</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.samsung.com/cl/tablets/galaxy-tab-s/galaxy-tab-s9-wi-fi-graphite-256gb-sm-x710nzaecho/</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.samsung.com/co/tablets/galaxy-tab-s/galaxy-tab-s9-wi-fi-graphite-256gb-sm-x710nzahcoo/</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.samsung.com/eg/tablets/galaxy-tab-s/galaxy-tab-s9-5g-graphite-128gb-sm-x716bzaamea/</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.samsung.com/id/tablets/galaxy-tab-s/galaxy-tab-s9-wi-fi-graphite-128gb-sm-x710nzaaxid/</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.samsung.com/il/tablets/galaxy-tab-s/galaxy-tab-s9-wi-fi-graphite-128gb-sm-x710nzaamec/</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.samsung.com/in/tablets/galaxy-tab-s/galaxy-tab-s9-wi-fi-graphite-256gb-sm-x710nzaeinu/</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.samsung.com/iq_ar/tablets/galaxy-tab-s/galaxy-tab-s9-wi-fi-graphite-128gb-sm-x710nzaamea/</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.samsung.com/iq_ku/tablets/galaxy-tab-s/galaxy-tab-s9-wi-fi-graphite-256gb-sm-x710nzaemea/</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.samsung.com/iran/tablets/galaxy-tab-s/galaxy-tab-s9-wi-fi-graphite-128gb-sm-x710nzaamea/</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.samsung.com/jp/tablets/galaxy-tab-s/galaxy-tab-s9-wi-fi-graphite-128gb-sm-x710nzaaxjp/</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.samsung.com/latin/tablets/galaxy-tab-s/galaxy-tab-s9-wi-fi-graphite-128gb-sm-x710nzaagto/</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.samsung.com/latin_en/tablets/galaxy-tab-s/galaxy-tab-s9-wi-fi-graphite-128gb-sm-x710nzaagto/</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.samsung.com/levant/tablets/galaxy-tab-s/galaxy-tab-s9-wi-fi-graphite-128gb-sm-x710nzaamea/</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.samsung.com/levant_ar/tablets/galaxy-tab-s/galaxy-tab-s9-wi-fi-graphite-128gb-sm-x710nzaamea/</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.samsung.com/mm/tablets/galaxy-tab-s/galaxy-tab-s9-5g-graphite-128gb-sm-x716bzaathl/</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.samsung.com/mx/tablets/galaxy-tab-s/galaxy-tab-s9-wi-fi-graphite-256gb-sm-x710nzaemxo/</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.samsung.com/my/tablets/galaxy-tab-s/galaxy-tab-s9-wi-fi-beige-256gb-sm-x710nzeexme/</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.samsung.com/n_africa/tablets/galaxy-tab-s/galaxy-tab-s9-5g-graphite-256gb-sm-x716bzaemwd/</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.samsung.com/nz/tablets/galaxy-tab-s/galaxy-tab-s9-wi-fi-graphite-256gb-sm-x710nzaexnz/</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.samsung.com/pe/tablets/galaxy-tab-s/galaxy-tab-s9-wi-fi-graphite-256gb-sm-x710nzahpeo/</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.samsung.com/ph/tablets/galaxy-tab-s/galaxy-tab-s9-wi-fi-graphite-256gb-sm-x710nzaextc/</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.samsung.com/ps/tablets/galaxy-tab-s/galaxy-tab-s9-wi-fi-graphite-128gb-sm-x710nzaamec/</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.samsung.com/py/tablets/galaxy-tab-s/galaxy-tab-s9-5g-graphite-128gb-sm-x716bzaaupo/</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.samsung.com/sa_en/tablets/galaxy-tab-s/galaxy-tab-s9-wi-fi-graphite-128gb-sm-x710nzaamea/</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.samsung.com/sa/tablets/galaxy-tab-s/galaxy-tab-s9-wi-fi-graphite-128gb-sm-x710nzaamea/</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.samsung.com/sg/tablets/galaxy-tab-s/galaxy-tab-s9-wi-fi-graphite-128gb-sm-x710nzaaxsp/</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.samsung.com/th/tablets/galaxy-tab-s/galaxy-tab-s9-wi-fi-graphite-128gb-sm-x710nzaathl/</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.samsung.com/tr/tablets/galaxy-tab-s/galaxy-tab-s9-wi-fi-graphite-128gb-sm-x710nzaatur/</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.samsung.com/uy/tablets/galaxy-tab-s/galaxy-tab-s9-wi-fi-graphite-128gb-sm-x710nzaduyo/</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.samsung.com/vn/tablets/galaxy-tab-s/galaxy-tab-s9-wi-fi-beige-256gb-sm-x710nzeexxv/</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.samsung.com/za/tablets/galaxy-tab-s/galaxy-tab-s9-5g-graphite-256gb-sm-x716bzaeafa/</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -751,7 +604,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -779,12 +632,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -841,7 +688,7 @@
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -859,19 +706,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
@@ -1299,7 +1143,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46306CC8-399E-4C47-BB3A-69CFC0DE16B0}">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1318,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1326,15 +1170,15 @@
         <v>25</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1342,7 +1186,7 @@
         <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1350,311 +1194,15 @@
         <v>28</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1677,48 +1225,11 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B38" r:id="rId1" xr:uid="{439CDD97-F9A7-47D3-AF72-4F7B87E41DC4}"/>
-    <hyperlink ref="B40" r:id="rId2" xr:uid="{8CD3F237-49C4-4C2B-98F5-95EBAF53B782}"/>
-    <hyperlink ref="B41" r:id="rId3" xr:uid="{080010B7-B802-41C8-859C-7BF6AC9B1789}"/>
-    <hyperlink ref="B42" r:id="rId4" xr:uid="{23746626-7B3D-4809-862F-75DEE1CF40CA}"/>
-    <hyperlink ref="B43" r:id="rId5" xr:uid="{120C0534-487B-4E7D-B830-B6100F7E6343}"/>
-    <hyperlink ref="B39" r:id="rId6" xr:uid="{AE7F228C-5581-478A-8E5B-8E7A8143AE58}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{3CD92C05-F2A2-4557-AB9E-C8E6DD6B7E99}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{DCEC447C-BC5F-4F1A-AFDE-1BC7D07C680C}"/>
-    <hyperlink ref="B13" r:id="rId9" xr:uid="{6C49147D-F98B-4810-9157-17A2AEF5333A}"/>
-    <hyperlink ref="B21" r:id="rId10" xr:uid="{A5274137-C763-455E-BDDA-2FDFEDAD2C45}"/>
-    <hyperlink ref="B16" r:id="rId11" xr:uid="{2FE554FA-3A13-475B-88DB-D3FDAE80CFA7}"/>
-    <hyperlink ref="B37" r:id="rId12" xr:uid="{5D550FB5-0998-4255-9AF1-C34282958E78}"/>
-    <hyperlink ref="B36" r:id="rId13" xr:uid="{081D6220-96EF-4B07-8069-4031CC61E5F4}"/>
-    <hyperlink ref="B35" r:id="rId14" xr:uid="{8AD3AF95-88DC-4C42-A5B0-123E7BEAA3A6}"/>
-    <hyperlink ref="B34" r:id="rId15" xr:uid="{9A04E131-697F-4244-A7F9-E76B1583FBC3}"/>
-    <hyperlink ref="B33" r:id="rId16" xr:uid="{53FB3C45-784C-412D-958A-F8A43F0AD511}"/>
-    <hyperlink ref="B32" r:id="rId17" xr:uid="{7E769D5A-3BC9-4990-956E-75CA9DEE78DE}"/>
-    <hyperlink ref="B31" r:id="rId18" xr:uid="{991392B8-8054-4F3A-A1BC-8A515FC9BE4D}"/>
-    <hyperlink ref="B30" r:id="rId19" xr:uid="{703EFECB-DBED-4AE5-9B74-1BD9B37101B8}"/>
-    <hyperlink ref="B29" r:id="rId20" xr:uid="{1C5962D6-E030-43D8-A4E2-A02DA1069893}"/>
-    <hyperlink ref="B28" r:id="rId21" xr:uid="{E5F10368-8FC4-4FCC-8CCA-69F77CCCFAAA}"/>
-    <hyperlink ref="B27" r:id="rId22" xr:uid="{D1FA8D51-E031-47C1-B413-9CE81858BAC5}"/>
-    <hyperlink ref="B26" r:id="rId23" xr:uid="{0FEF44D2-4219-4F8E-A593-2EAB3F9A3DD8}"/>
-    <hyperlink ref="B25" r:id="rId24" xr:uid="{3DE1D231-835A-4E19-BB14-2E07419072E5}"/>
-    <hyperlink ref="B24" r:id="rId25" display="https://p6-qaweb-sa.samsung.com/lb/tablets/galaxy-tab-s/galaxy-tab-s9-wi-fi-graphite-128gb-sm-x710nzaamea/" xr:uid="{0E114CE8-DFA9-41E9-9608-2CDBF273266C}"/>
-    <hyperlink ref="B23" r:id="rId26" xr:uid="{A906AFF0-7279-43FB-BA1B-CE69C4E348F4}"/>
-    <hyperlink ref="B22" r:id="rId27" xr:uid="{30FE9DB5-2E2E-4D2D-A071-D2E984B1AF8E}"/>
-    <hyperlink ref="B20" r:id="rId28" xr:uid="{1A3D4482-CD31-445B-ACA6-7F0FE0E7BA2E}"/>
-    <hyperlink ref="B19" r:id="rId29" xr:uid="{3D9E6C01-96E7-43C7-962C-FD9CCF638B15}"/>
-    <hyperlink ref="B18" r:id="rId30" xr:uid="{F1ADA459-8A43-4D89-B5F7-AB8F8A3C5DDC}"/>
-    <hyperlink ref="B17" r:id="rId31" xr:uid="{FC0C3949-6BF9-491A-8A9D-BD5C13FE95A9}"/>
-    <hyperlink ref="B15" r:id="rId32" xr:uid="{D20161CD-85E1-42FD-9542-E69EA9781C8F}"/>
-    <hyperlink ref="B14" r:id="rId33" xr:uid="{85639C1A-F3BE-4B9A-8CE5-A79196B1FACB}"/>
-    <hyperlink ref="B12" r:id="rId34" xr:uid="{11EA216B-A5AF-4B60-BE30-1FDF78B29FC9}"/>
-    <hyperlink ref="B11" r:id="rId35" xr:uid="{23E2AA31-F60F-4DFF-A877-ED7C223BBDCA}"/>
-    <hyperlink ref="B10" r:id="rId36" xr:uid="{8BBD0EB0-3B2B-41E9-AF83-35A8FADB106D}"/>
-    <hyperlink ref="B7" r:id="rId37" xr:uid="{C0538991-F07D-406A-8CFC-47D35258BFC1}"/>
-    <hyperlink ref="B6" r:id="rId38" xr:uid="{2E04F065-A35B-436C-B9F3-D083F51CCA97}"/>
-    <hyperlink ref="B5" r:id="rId39" xr:uid="{F0C2BCC0-36E5-47C1-B208-920AECB1D983}"/>
-    <hyperlink ref="B4" r:id="rId40" xr:uid="{511F4D40-141E-402D-A88B-39F128E69048}"/>
-    <hyperlink ref="B3" r:id="rId41" xr:uid="{1D00F4C6-9851-4947-9D5A-0C0C0866EA17}"/>
-    <hyperlink ref="B2" r:id="rId42" xr:uid="{5B91572D-B6CC-4C88-B476-F02DA92ED1EA}"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{2E04F065-A35B-436C-B9F3-D083F51CCA97}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{F0C2BCC0-36E5-47C1-B208-920AECB1D983}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{511F4D40-141E-402D-A88B-39F128E69048}"/>
+    <hyperlink ref="B3" r:id="rId4" xr:uid="{1D00F4C6-9851-4947-9D5A-0C0C0866EA17}"/>
+    <hyperlink ref="B2" r:id="rId5" xr:uid="{5B91572D-B6CC-4C88-B476-F02DA92ED1EA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1746,347 +1257,347 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="8" t="s">
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" s="7" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="8" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" s="7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="8" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="8" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43" s="7" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="8" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B44" s="7" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2179,347 +1690,347 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="9" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>169</v>
-      </c>
-    </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="10" t="s">
-        <v>167</v>
+      <c r="B29" s="9" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>166</v>
+      <c r="A30" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="10" t="s">
-        <v>165</v>
+      <c r="B31" s="9" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="10" t="s">
-        <v>168</v>
+      <c r="B32" s="9" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B33" s="10" t="s">
-        <v>164</v>
+      <c r="B33" s="9" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="10" t="s">
-        <v>163</v>
+      <c r="B34" s="9" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="10" t="s">
-        <v>162</v>
+      <c r="B35" s="9" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B36" s="10" t="s">
-        <v>161</v>
+      <c r="B36" s="9" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B37" s="10" t="s">
-        <v>160</v>
+      <c r="B37" s="9" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B38" s="10" t="s">
-        <v>159</v>
+      <c r="B38" s="9" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="10" t="s">
-        <v>158</v>
+      <c r="B39" s="9" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B40" s="10" t="s">
-        <v>157</v>
+      <c r="B40" s="9" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B41" s="10" t="s">
-        <v>156</v>
+      <c r="B41" s="9" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B42" s="10" t="s">
-        <v>155</v>
+      <c r="B42" s="9" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B43" s="10" t="s">
-        <v>154</v>
+      <c r="B43" s="9" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B44" s="10" t="s">
-        <v>153</v>
+      <c r="B44" s="9" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
